--- a/Data Collection.xlsx
+++ b/Data Collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Documents\GitHub\Stat-293\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD167692-A07A-4D32-917B-A701716280E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4B4A77-A133-454D-AC0A-AC0B92741613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8080" yWindow="450" windowWidth="8640" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matching Methods" sheetId="1" r:id="rId1"/>
@@ -385,7 +385,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -465,6 +465,9 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Data Collection.xlsx
+++ b/Data Collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Documents\GitHub\Stat-293\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4B4A77-A133-454D-AC0A-AC0B92741613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CDAEF1-644F-4ED6-9E7B-E59898C82653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8080" yWindow="450" windowWidth="8640" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="400" windowWidth="15840" windowHeight="9580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matching Methods" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Sample:</t>
   </si>
@@ -46,22 +46,25 @@
     <t>Unit of Time:</t>
   </si>
   <si>
-    <t>Time (Avg of 5):</t>
-  </si>
-  <si>
     <t>Bmatch</t>
   </si>
   <si>
-    <t>Var of Time:</t>
-  </si>
-  <si>
-    <t>The Actual Values:</t>
-  </si>
-  <si>
     <t># Matched (Avg):</t>
   </si>
   <si>
     <t>glpk</t>
+  </si>
+  <si>
+    <t>sec</t>
+  </si>
+  <si>
+    <t>SD of Time:</t>
+  </si>
+  <si>
+    <t>Time:</t>
+  </si>
+  <si>
+    <t>Numtrials:</t>
   </si>
 </sst>
 </file>
@@ -382,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -393,7 +396,7 @@
     <col min="1" max="1" width="8.36328125" customWidth="1"/>
     <col min="2" max="2" width="13.1796875" customWidth="1"/>
     <col min="3" max="3" width="10.7265625" customWidth="1"/>
-    <col min="5" max="5" width="7.36328125" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" customWidth="1"/>
     <col min="6" max="6" width="16.54296875" customWidth="1"/>
     <col min="7" max="7" width="15.36328125" customWidth="1"/>
     <col min="8" max="8" width="14.26953125" customWidth="1"/>
@@ -401,9 +404,9 @@
     <col min="10" max="10" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -413,7 +416,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -430,26 +433,22 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>100</v>
       </c>
@@ -463,16 +462,59 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>2.8680000000000001E-2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3">
+        <v>6.0855329999999997E-3</v>
+      </c>
+      <c r="J3">
+        <v>40.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1000</v>
+      </c>
+      <c r="B4">
+        <v>0.2</v>
+      </c>
+      <c r="C4">
         <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>4.021172</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4">
+        <v>0.40924840000000001</v>
+      </c>
+      <c r="J4">
+        <v>395.9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="J2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data Collection.xlsx
+++ b/Data Collection.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Documents\GitHub\Stat-293\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CDAEF1-644F-4ED6-9E7B-E59898C82653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE0A3E5-32C5-4043-B46D-56AA0D1E52E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="400" windowWidth="15840" windowHeight="9580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="290" windowWidth="15840" windowHeight="9580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Matching Methods" sheetId="1" r:id="rId1"/>
-    <sheet name="Variable Selection Methods" sheetId="2" r:id="rId2"/>
+    <sheet name="BMatch" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Variable Selection Methods" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
   <si>
     <t>Sample:</t>
   </si>
@@ -49,9 +50,6 @@
     <t>Bmatch</t>
   </si>
   <si>
-    <t># Matched (Avg):</t>
-  </si>
-  <si>
     <t>glpk</t>
   </si>
   <si>
@@ -65,6 +63,21 @@
   </si>
   <si>
     <t>Numtrials:</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>Subotimal?</t>
+  </si>
+  <si>
+    <t>Maybe</t>
+  </si>
+  <si>
+    <t># Matched (Avg, Roughly):</t>
+  </si>
+  <si>
+    <t>N/A (&gt;=30 min)</t>
   </si>
 </sst>
 </file>
@@ -385,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -401,10 +414,10 @@
     <col min="7" max="7" width="15.36328125" customWidth="1"/>
     <col min="8" max="8" width="14.26953125" customWidth="1"/>
     <col min="9" max="9" width="12.90625" customWidth="1"/>
-    <col min="10" max="10" width="17.6328125" customWidth="1"/>
+    <col min="10" max="10" width="23.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -416,7 +429,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -433,22 +446,25 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>100</v>
       </c>
@@ -462,7 +478,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3">
         <v>20</v>
@@ -471,7 +487,7 @@
         <v>2.8680000000000001E-2</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I3">
         <v>6.0855329999999997E-3</v>
@@ -480,7 +496,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -494,7 +510,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4">
         <v>20</v>
@@ -503,13 +519,464 @@
         <v>4.021172</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I4">
         <v>0.40924840000000001</v>
       </c>
       <c r="J4">
         <v>395.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2000</v>
+      </c>
+      <c r="B5">
+        <v>0.2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>25.96698</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>2.0290650000000001</v>
+      </c>
+      <c r="J5">
+        <v>777.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>3000</v>
+      </c>
+      <c r="B6">
+        <v>0.2</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>1.322228</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>0.14862059999999999</v>
+      </c>
+      <c r="J6">
+        <v>1183.5999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5000</v>
+      </c>
+      <c r="B7">
+        <v>0.2</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>7.6365569999999998</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7">
+        <v>0.65462109999999996</v>
+      </c>
+      <c r="J7">
+        <v>1989.2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <v>0.2</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>3.320861E-2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <v>1.1221719999999999E-2</v>
+      </c>
+      <c r="J8">
+        <v>40.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>1000</v>
+      </c>
+      <c r="B9">
+        <v>0.2</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>4.5047389999999998</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>1.0160450000000001</v>
+      </c>
+      <c r="J9">
+        <v>395.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>3000</v>
+      </c>
+      <c r="B10">
+        <v>0.2</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>1.441041</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10">
+        <v>0.1507809</v>
+      </c>
+      <c r="J10">
+        <v>1183.5999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <v>0.2</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>3.6658299999999998E-2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <v>1.1349990000000001E-2</v>
+      </c>
+      <c r="J11">
+        <v>40.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1000</v>
+      </c>
+      <c r="B12">
+        <v>0.2</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <v>4.8989589999999996</v>
+      </c>
+      <c r="H12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>1.050762</v>
+      </c>
+      <c r="J12">
+        <v>395.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>3000</v>
+      </c>
+      <c r="B13">
+        <v>0.2</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>1.3582780000000001</v>
+      </c>
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13">
+        <v>0.17267009999999999</v>
+      </c>
+      <c r="J13">
+        <v>1183.5999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>100</v>
+      </c>
+      <c r="B14">
+        <v>0.2</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+      <c r="G14">
+        <v>5.4056600000000003E-2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14">
+        <v>6.9713520000000001E-3</v>
+      </c>
+      <c r="J14">
+        <v>40.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>1000</v>
+      </c>
+      <c r="B15">
+        <v>0.2</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <v>5.8931719999999999</v>
+      </c>
+      <c r="H15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15">
+        <v>0.77829769999999998</v>
+      </c>
+      <c r="J15">
+        <v>395.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>3000</v>
+      </c>
+      <c r="B16">
+        <v>0.2</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>1.5595509999999999</v>
+      </c>
+      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16">
+        <v>0.19120880000000001</v>
+      </c>
+      <c r="J16">
+        <v>1183.5999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>1000</v>
+      </c>
+      <c r="B17">
+        <v>0.2</v>
+      </c>
+      <c r="C17">
+        <v>200</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>2.2522609999999998</v>
+      </c>
+      <c r="H17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17">
+        <v>9.7524360000000004E-2</v>
+      </c>
+      <c r="J17">
+        <v>395.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>3000</v>
+      </c>
+      <c r="B18">
+        <v>0.2</v>
+      </c>
+      <c r="C18">
+        <v>600</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18">
+        <v>1183.5999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -521,6 +988,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92C43F1-8811-4254-97AD-EDF825DF7EAB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D9B42BA-9444-4E15-BBE3-F2021E09820A}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Data Collection.xlsx
+++ b/Data Collection.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Documents\GitHub\Stat-293\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE0A3E5-32C5-4043-B46D-56AA0D1E52E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6787676-8D36-47F5-8295-236ED72F20BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="290" windowWidth="15840" windowHeight="9580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="290" windowWidth="15840" windowHeight="9580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BMatch" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="CardMatch" sheetId="4" r:id="rId2"/>
     <sheet name="Variable Selection Methods" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="17">
   <si>
     <t>Sample:</t>
   </si>
@@ -400,8 +400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C9" sqref="A1:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -988,13 +988,481 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92C43F1-8811-4254-97AD-EDF825DF7EAB}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D95F620-68B2-4399-B918-51914767375A}">
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.36328125" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" customWidth="1"/>
+    <col min="6" max="6" width="16.54296875" customWidth="1"/>
+    <col min="7" max="7" width="15.36328125" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" customWidth="1"/>
+    <col min="9" max="9" width="12.90625" customWidth="1"/>
+    <col min="10" max="10" width="23.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>4.2910400000000001E-2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <v>2.3436740000000001E-2</v>
+      </c>
+      <c r="J3">
+        <v>40.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1000</v>
+      </c>
+      <c r="B4">
+        <v>0.2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>1.7760739999999999</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>0.78886109999999998</v>
+      </c>
+      <c r="J4">
+        <v>395.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2000</v>
+      </c>
+      <c r="B5">
+        <v>0.2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>12.860099999999999</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>8.4210499999999993</v>
+      </c>
+      <c r="J5">
+        <v>777.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>3000</v>
+      </c>
+      <c r="B6">
+        <v>0.2</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>20.335999999999999</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>10.36347</v>
+      </c>
+      <c r="J6">
+        <v>1183.5999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5000</v>
+      </c>
+      <c r="B7">
+        <v>0.2</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <v>0.2</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>1000</v>
+      </c>
+      <c r="B9">
+        <v>0.2</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>3000</v>
+      </c>
+      <c r="B10">
+        <v>0.2</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <v>0.2</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1000</v>
+      </c>
+      <c r="B12">
+        <v>0.2</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>3000</v>
+      </c>
+      <c r="B13">
+        <v>0.2</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>100</v>
+      </c>
+      <c r="B14">
+        <v>0.2</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>1000</v>
+      </c>
+      <c r="B15">
+        <v>0.2</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>3000</v>
+      </c>
+      <c r="B16">
+        <v>0.2</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>1000</v>
+      </c>
+      <c r="B17">
+        <v>0.2</v>
+      </c>
+      <c r="C17">
+        <v>200</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>3000</v>
+      </c>
+      <c r="B18">
+        <v>0.2</v>
+      </c>
+      <c r="C18">
+        <v>600</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Data Collection.xlsx
+++ b/Data Collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Documents\GitHub\Stat-293\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6787676-8D36-47F5-8295-236ED72F20BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800C45BF-5BE6-4714-AD5F-5CEE38FDD0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="290" windowWidth="15840" windowHeight="9580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="620" windowWidth="15840" windowHeight="9580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BMatch" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="18">
   <si>
     <t>Sample:</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>N/A (&gt;=30 min)</t>
+  </si>
+  <si>
+    <t>Cardmatch</t>
   </si>
 </sst>
 </file>
@@ -400,8 +403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C9" sqref="A1:K18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -989,10 +992,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D95F620-68B2-4399-B918-51914767375A}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1010,7 +1013,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1136,19 +1139,19 @@
         <v>7</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G5">
-        <v>12.860099999999999</v>
+        <v>10.41811</v>
       </c>
       <c r="H5" t="s">
         <v>8</v>
       </c>
       <c r="I5">
-        <v>8.4210499999999993</v>
+        <v>5.486186</v>
       </c>
       <c r="J5">
-        <v>777.2</v>
+        <v>785.6</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -1202,19 +1205,28 @@
       <c r="F7">
         <v>5</v>
       </c>
+      <c r="G7">
+        <v>1.8923270000000001</v>
+      </c>
       <c r="H7" t="s">
         <v>12</v>
       </c>
+      <c r="I7">
+        <v>5.827703E-2</v>
+      </c>
+      <c r="J7">
+        <v>1989.2</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="B8">
         <v>0.2</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1223,15 +1235,24 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>14.919230000000001</v>
       </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="I8">
+        <v>0.66773570000000004</v>
+      </c>
+      <c r="J8">
+        <v>4008.4</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="B9">
         <v>0.2</v>
@@ -1254,7 +1275,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="B10">
         <v>0.2</v>
@@ -1269,21 +1290,21 @@
         <v>7</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="B11">
         <v>0.2</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1292,15 +1313,15 @@
         <v>7</v>
       </c>
       <c r="F11">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="B12">
         <v>0.2</v>
@@ -1323,7 +1344,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="B13">
         <v>0.2</v>
@@ -1338,21 +1359,21 @@
         <v>7</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="B14">
         <v>0.2</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1361,15 +1382,15 @@
         <v>7</v>
       </c>
       <c r="F14">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="B15">
         <v>0.2</v>
@@ -1392,7 +1413,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="B16">
         <v>0.2</v>
@@ -1407,21 +1428,21 @@
         <v>7</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H16" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="B17">
         <v>0.2</v>
       </c>
       <c r="C17">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1438,24 +1459,47 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
+        <v>1000</v>
+      </c>
+      <c r="B18">
+        <v>0.2</v>
+      </c>
+      <c r="C18">
+        <v>200</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>3000</v>
       </c>
-      <c r="B18">
-        <v>0.2</v>
-      </c>
-      <c r="C18">
+      <c r="B19">
+        <v>0.2</v>
+      </c>
+      <c r="C19">
         <v>600</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Data Collection.xlsx
+++ b/Data Collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Documents\GitHub\Stat-293\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800C45BF-5BE6-4714-AD5F-5CEE38FDD0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED667C62-A3F4-4BF3-9502-828EA30A3F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="620" windowWidth="15840" windowHeight="9580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1000" yWindow="1550" windowWidth="15840" windowHeight="9580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BMatch" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="19">
   <si>
     <t>Sample:</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Cardmatch</t>
+  </si>
+  <si>
+    <t>REDO: some are in minutes</t>
   </si>
 </sst>
 </file>
@@ -995,7 +998,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1182,8 +1185,8 @@
       <c r="I6">
         <v>10.36347</v>
       </c>
-      <c r="J6">
-        <v>1183.5999999999999</v>
+      <c r="J6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -1292,8 +1295,17 @@
       <c r="F10">
         <v>20</v>
       </c>
+      <c r="G10">
+        <v>6.0534030000000003</v>
+      </c>
       <c r="H10" t="s">
         <v>8</v>
+      </c>
+      <c r="I10">
+        <v>5.6810749999999999</v>
+      </c>
+      <c r="J10">
+        <v>395.9</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -1315,8 +1327,17 @@
       <c r="F11">
         <v>5</v>
       </c>
+      <c r="G11">
+        <v>22.466190000000001</v>
+      </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <v>29.145859999999999</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -1508,6 +1529,7 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Data Collection.xlsx
+++ b/Data Collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Documents\GitHub\Stat-293\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED667C62-A3F4-4BF3-9502-828EA30A3F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A61130-F18D-48E0-B8CF-4D9F8E0DDC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="1550" windowWidth="15840" windowHeight="9580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1000" yWindow="500" windowWidth="15840" windowHeight="9580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BMatch" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="20">
   <si>
     <t>Sample:</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>REDO: some are in minutes</t>
+  </si>
+  <si>
+    <t>Suboptimal?</t>
   </si>
 </sst>
 </file>
@@ -406,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -421,6 +424,7 @@
     <col min="8" max="8" width="14.26953125" customWidth="1"/>
     <col min="9" max="9" width="12.90625" customWidth="1"/>
     <col min="10" max="10" width="23.54296875" customWidth="1"/>
+    <col min="11" max="11" width="13.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -467,7 +471,7 @@
         <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">

--- a/Data Collection.xlsx
+++ b/Data Collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Documents\GitHub\Stat-293\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A61130-F18D-48E0-B8CF-4D9F8E0DDC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A41B427-B3CC-4E97-B3E3-E3324134BB36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="500" windowWidth="15840" windowHeight="9580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40" yWindow="460" windowWidth="15840" windowHeight="9580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BMatch" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="20">
   <si>
     <t>Sample:</t>
   </si>
@@ -1002,7 +1002,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="C6" sqref="C6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1332,16 +1332,16 @@
         <v>5</v>
       </c>
       <c r="G11">
-        <v>22.466190000000001</v>
+        <v>1.13896</v>
       </c>
       <c r="H11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I11">
-        <v>29.145859999999999</v>
-      </c>
-      <c r="J11" t="s">
-        <v>18</v>
+        <v>0.30044969999999999</v>
+      </c>
+      <c r="J11">
+        <v>1183.5999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">

--- a/Data Collection.xlsx
+++ b/Data Collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Documents\GitHub\Stat-293\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A41B427-B3CC-4E97-B3E3-E3324134BB36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61EE03B-3776-4CDC-964B-3253A647DF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="460" windowWidth="15840" windowHeight="9580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3670" yWindow="390" windowWidth="15840" windowHeight="9580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BMatch" sheetId="1" r:id="rId1"/>
@@ -1002,7 +1002,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:H6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Data Collection.xlsx
+++ b/Data Collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Documents\GitHub\Stat-293\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61EE03B-3776-4CDC-964B-3253A647DF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9343307A-04CE-4295-BFE1-251F5ED7A254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3670" yWindow="390" windowWidth="15840" windowHeight="9580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3130" yWindow="350" windowWidth="15840" windowHeight="9580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BMatch" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="22">
   <si>
     <t>Sample:</t>
   </si>
@@ -83,10 +83,16 @@
     <t>Cardmatch</t>
   </si>
   <si>
-    <t>REDO: some are in minutes</t>
-  </si>
-  <si>
     <t>Suboptimal?</t>
+  </si>
+  <si>
+    <t>N/A (&gt;=20 min)</t>
+  </si>
+  <si>
+    <t>NAN</t>
+  </si>
+  <si>
+    <t>N/A (&gt;=15 min)</t>
   </si>
 </sst>
 </file>
@@ -409,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -471,7 +477,7 @@
         <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -999,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D95F620-68B2-4399-B918-51914767375A}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1178,19 +1184,19 @@
         <v>7</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G6">
-        <v>20.335999999999999</v>
+        <v>33.064109999999999</v>
       </c>
       <c r="H6" t="s">
         <v>8</v>
       </c>
       <c r="I6">
-        <v>10.36347</v>
-      </c>
-      <c r="J6" t="s">
-        <v>18</v>
+        <v>24.111180000000001</v>
+      </c>
+      <c r="J6">
+        <v>1193.5</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -1276,8 +1282,17 @@
       <c r="F9">
         <v>20</v>
       </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
       <c r="H9" t="s">
         <v>8</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -1346,13 +1361,13 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="B12">
         <v>0.2</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1361,15 +1376,24 @@
         <v>7</v>
       </c>
       <c r="F12">
-        <v>20</v>
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>4.496861</v>
       </c>
       <c r="H12" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="I12">
+        <v>0.3185076</v>
+      </c>
+      <c r="J12">
+        <v>1988</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="B13">
         <v>0.2</v>
@@ -1386,13 +1410,19 @@
       <c r="F13">
         <v>20</v>
       </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
       <c r="H13" t="s">
         <v>8</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="B14">
         <v>0.2</v>
@@ -1407,21 +1437,21 @@
         <v>7</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="B15">
         <v>0.2</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1430,67 +1460,79 @@
         <v>7</v>
       </c>
       <c r="F15">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
+        <v>100</v>
+      </c>
+      <c r="B16">
+        <v>0.2</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>1000</v>
       </c>
-      <c r="B16">
-        <v>0.2</v>
-      </c>
-      <c r="C16">
-        <v>20</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16">
-        <v>20</v>
-      </c>
-      <c r="H16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17">
+      <c r="B17">
+        <v>0.2</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>3000</v>
       </c>
-      <c r="B17">
-        <v>0.2</v>
-      </c>
-      <c r="C17">
-        <v>20</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17">
-        <v>5</v>
-      </c>
-      <c r="H17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>1000</v>
-      </c>
       <c r="B18">
         <v>0.2</v>
       </c>
       <c r="C18">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1505,26 +1547,49 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
+        <v>1000</v>
+      </c>
+      <c r="B19">
+        <v>0.2</v>
+      </c>
+      <c r="C19">
+        <v>200</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20">
         <v>3000</v>
       </c>
-      <c r="B19">
-        <v>0.2</v>
-      </c>
-      <c r="C19">
+      <c r="B20">
+        <v>0.2</v>
+      </c>
+      <c r="C20">
         <v>600</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Data Collection.xlsx
+++ b/Data Collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Documents\GitHub\Stat-293\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9343307A-04CE-4295-BFE1-251F5ED7A254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A1DAB2-32BA-40A1-B33F-8B7243031ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3130" yWindow="350" windowWidth="15840" windowHeight="9580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1270" yWindow="390" windowWidth="15840" windowHeight="9580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BMatch" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="22">
   <si>
     <t>Sample:</t>
   </si>
@@ -1005,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D95F620-68B2-4399-B918-51914767375A}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1437,10 +1437,16 @@
         <v>7</v>
       </c>
       <c r="F14">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
       </c>
       <c r="H14" t="s">
         <v>8</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -1462,19 +1468,25 @@
       <c r="F15">
         <v>5</v>
       </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
       <c r="H15" t="s">
         <v>12</v>
       </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="B16">
         <v>0.2</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1483,21 +1495,18 @@
         <v>7</v>
       </c>
       <c r="F16">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="B17">
         <v>0.2</v>
@@ -1515,18 +1524,18 @@
         <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H17" t="s">
         <v>8</v>
       </c>
       <c r="I17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="B18">
         <v>0.2</v>
@@ -1541,21 +1550,27 @@
         <v>7</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
       </c>
       <c r="H18" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="B19">
         <v>0.2</v>
       </c>
       <c r="C19">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1566,19 +1581,25 @@
       <c r="F19">
         <v>5</v>
       </c>
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
       <c r="H19" t="s">
         <v>12</v>
       </c>
+      <c r="I19" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="B20">
         <v>0.2</v>
       </c>
       <c r="C20">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1587,10 +1608,45 @@
         <v>7</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
       </c>
       <c r="H20" t="s">
         <v>12</v>
+      </c>
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>3000</v>
+      </c>
+      <c r="B21">
+        <v>0.2</v>
+      </c>
+      <c r="C21">
+        <v>600</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Data Collection.xlsx
+++ b/Data Collection.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Documents\GitHub\Stat-293\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A1DAB2-32BA-40A1-B33F-8B7243031ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E804E8-2A7E-4090-B4FE-53EE69090582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1270" yWindow="390" windowWidth="15840" windowHeight="9580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="150" yWindow="380" windowWidth="13760" windowHeight="9580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BMatch" sheetId="1" r:id="rId1"/>
     <sheet name="CardMatch" sheetId="4" r:id="rId2"/>
-    <sheet name="Variable Selection Methods" sheetId="2" r:id="rId3"/>
+    <sheet name="OAL" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="32">
   <si>
     <t>Sample:</t>
   </si>
@@ -93,6 +93,36 @@
   </si>
   <si>
     <t>N/A (&gt;=15 min)</t>
+  </si>
+  <si>
+    <t>OAL</t>
+  </si>
+  <si>
+    <t>p:</t>
+  </si>
+  <si>
+    <t>pC:</t>
+  </si>
+  <si>
+    <t>pP:</t>
+  </si>
+  <si>
+    <t>pI:</t>
+  </si>
+  <si>
+    <t>Proportion Selected (pC)</t>
+  </si>
+  <si>
+    <t>pI</t>
+  </si>
+  <si>
+    <t>pP</t>
+  </si>
+  <si>
+    <t>pS</t>
+  </si>
+  <si>
+    <t>N/A - cannot allocate vector of size 18.6 Gb</t>
   </si>
 </sst>
 </file>
@@ -416,7 +446,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1007,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D95F620-68B2-4399-B918-51914767375A}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1659,13 +1689,413 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D9B42BA-9444-4E15-BBE3-F2021E09820A}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3DC86A-BCA5-4603-A673-CE4D068974FC}">
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.36328125" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" customWidth="1"/>
+    <col min="6" max="6" width="16.54296875" customWidth="1"/>
+    <col min="7" max="7" width="15.36328125" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" customWidth="1"/>
+    <col min="9" max="9" width="12.90625" customWidth="1"/>
+    <col min="10" max="10" width="23.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>8.1891560000000002E-2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <v>6.5299960000000004E-2</v>
+      </c>
+      <c r="J3">
+        <v>0.67</v>
+      </c>
+      <c r="K3">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="L3">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="M3">
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>6.6089510000000004E-2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>3.9975370000000003E-2</v>
+      </c>
+      <c r="J4">
+        <v>0.75</v>
+      </c>
+      <c r="K4">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>6.0359959999999997E-2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>7.5252380000000001E-3</v>
+      </c>
+      <c r="J5">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="K5">
+        <v>0.44500000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>6.0168029999999997E-2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>7.3051640000000003E-3</v>
+      </c>
+      <c r="J6">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="K6">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>75</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>6.7725579999999994E-2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7">
+        <v>2.0748679999999999E-2</v>
+      </c>
+      <c r="J7">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="K7">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>150</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>7.3864650000000004E-2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <v>8.7321480000000003E-3</v>
+      </c>
+      <c r="J8">
+        <v>0.99</v>
+      </c>
+      <c r="K8">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>300</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>9.8472859999999995E-2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>1.2454750000000001E-2</v>
+      </c>
+      <c r="J9">
+        <v>0.995</v>
+      </c>
+      <c r="K9">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>5000</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>3.1130330000000002</v>
+      </c>
+      <c r="H10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <v>4.3620529999999998E-2</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10000</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>14.919230000000001</v>
+      </c>
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <v>0.66773570000000004</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>50000</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data Collection.xlsx
+++ b/Data Collection.xlsx
@@ -8,26 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Documents\GitHub\Stat-293\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E804E8-2A7E-4090-B4FE-53EE69090582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AAEDDDE-D89E-4E4C-AE74-2332A9859CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="380" windowWidth="13760" windowHeight="9580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4950" yWindow="380" windowWidth="18860" windowHeight="9580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BMatch" sheetId="1" r:id="rId1"/>
     <sheet name="CardMatch" sheetId="4" r:id="rId2"/>
     <sheet name="OAL" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="56">
   <si>
     <t>Sample:</t>
   </si>
@@ -123,6 +133,78 @@
   </si>
   <si>
     <t>N/A - cannot allocate vector of size 18.6 Gb</t>
+  </si>
+  <si>
+    <t>Var of pI</t>
+  </si>
+  <si>
+    <t>Var of Proportion pC: (Unscaled)</t>
+  </si>
+  <si>
+    <t>Var of pP</t>
+  </si>
+  <si>
+    <t>Var of pS</t>
+  </si>
+  <si>
+    <t>Var of Mean Proportion Selected: (pC)</t>
+  </si>
+  <si>
+    <t>MVar of pI</t>
+  </si>
+  <si>
+    <t>MVar of pP</t>
+  </si>
+  <si>
+    <t>MVar of pS</t>
+  </si>
+  <si>
+    <t>Stro:</t>
+  </si>
+  <si>
+    <t>Stre:</t>
+  </si>
+  <si>
+    <t>Convergence Warning?</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Mean Time:</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Comments:</t>
+  </si>
+  <si>
+    <t>At this point, the resolution for pI is very low</t>
+  </si>
+  <si>
+    <t>Because of how small numtrials are, the resolution is super low</t>
+  </si>
+  <si>
+    <t>Seeing a little bit on how the problem scales with more parameters; somehow, with multiplying parameters by 5 (compared to row 4), the feature selection is better, though the time has also scaled up a lot</t>
+  </si>
+  <si>
+    <t>Comparing to rows 6-, seeing how the problem changes as the ratio of parameters changes</t>
+  </si>
+  <si>
+    <t>It does not seem like changing the relative scales of each parameter changes the variable selection significantly</t>
+  </si>
+  <si>
+    <t>Now, compared to row 8, what happens if the relationship to the outcome strengthened?</t>
+  </si>
+  <si>
+    <t>suspicious, though it seems to select the other variables less often</t>
+  </si>
+  <si>
+    <t>How much does relationship with exposure affect the choices?</t>
+  </si>
+  <si>
+    <t>Somehow, an error is occuring… the error is likely with lqa unfortunately D:</t>
   </si>
 </sst>
 </file>
@@ -1690,10 +1772,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3DC86A-BCA5-4603-A673-CE4D068974FC}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1707,9 +1789,17 @@
     <col min="8" max="8" width="14.26953125" customWidth="1"/>
     <col min="9" max="9" width="12.90625" customWidth="1"/>
     <col min="10" max="10" width="23.54296875" customWidth="1"/>
+    <col min="14" max="14" width="34.36328125" customWidth="1"/>
+    <col min="15" max="15" width="10.7265625" customWidth="1"/>
+    <col min="16" max="16" width="11.36328125" customWidth="1"/>
+    <col min="17" max="17" width="11.7265625" customWidth="1"/>
+    <col min="18" max="18" width="28" customWidth="1"/>
+    <col min="21" max="21" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.81640625" customWidth="1"/>
+    <col min="25" max="25" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1721,7 +1811,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1741,7 +1831,7 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
         <v>5</v>
@@ -1761,8 +1851,44 @@
       <c r="M2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>25</v>
       </c>
@@ -1782,28 +1908,65 @@
         <v>100</v>
       </c>
       <c r="G3">
-        <v>8.1891560000000002E-2</v>
+        <v>9.5589779999999999E-2</v>
       </c>
       <c r="H3" t="s">
         <v>8</v>
       </c>
       <c r="I3">
-        <v>6.5299960000000004E-2</v>
+        <v>8.7116100000000002E-2</v>
       </c>
       <c r="J3">
-        <v>0.67</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="K3">
-        <v>0.35499999999999998</v>
+        <v>0.34</v>
       </c>
       <c r="L3">
-        <v>0.54500000000000004</v>
+        <v>0.63</v>
       </c>
       <c r="M3">
-        <v>0.28499999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="N3">
+        <f>(R3)/MAX(F3, 1)</f>
+        <v>1.0229797999999999E-3</v>
+      </c>
+      <c r="O3">
+        <f>S3/MAX(F3, 1)</f>
+        <v>1.0545455E-3</v>
+      </c>
+      <c r="P3">
+        <f>T3/MAX(F3, 1)</f>
+        <v>1.1424242E-3</v>
+      </c>
+      <c r="Q3">
+        <f>U3/MAX(F3, 1)</f>
+        <v>1.463616E-4</v>
+      </c>
+      <c r="R3">
+        <v>0.10229798</v>
+      </c>
+      <c r="S3">
+        <v>0.10545454999999999</v>
+      </c>
+      <c r="T3">
+        <v>0.11424242</v>
+      </c>
+      <c r="U3">
+        <v>1.463616E-2</v>
+      </c>
+      <c r="V3">
+        <v>0.6</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>30</v>
       </c>
@@ -1823,22 +1986,59 @@
         <v>100</v>
       </c>
       <c r="G4">
-        <v>6.6089510000000004E-2</v>
+        <v>7.4477189999999999E-2</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
       </c>
       <c r="I4">
-        <v>3.9975370000000003E-2</v>
+        <v>5.7886350000000003E-2</v>
       </c>
       <c r="J4">
-        <v>0.75</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="K4">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0.45</v>
+      </c>
+      <c r="L4">
+        <v>0.51</v>
+      </c>
+      <c r="M4">
+        <v>0.2214286</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N70" si="0">(R4)/MAX(F4, 1)</f>
+        <v>8.6338380000000007E-4</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O70" si="1">S4/MAX(F4, 1)</f>
+        <v>1.2878788E-3</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P70" si="2">T4/MAX(F4, 1)</f>
+        <v>1.1101010000000001E-3</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q70" si="3">U4/MAX(F4, 1)</f>
+        <v>1.2832410000000001E-4</v>
+      </c>
+      <c r="R4">
+        <v>8.6338380000000006E-2</v>
+      </c>
+      <c r="S4">
+        <v>0.12878787999999999</v>
+      </c>
+      <c r="T4">
+        <v>0.1110101</v>
+      </c>
+      <c r="U4">
+        <v>1.2832410000000001E-2</v>
+      </c>
+      <c r="X4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>40</v>
       </c>
@@ -1858,22 +2058,59 @@
         <v>100</v>
       </c>
       <c r="G5">
-        <v>6.0359959999999997E-2</v>
+        <v>6.9318980000000002E-2</v>
       </c>
       <c r="H5" t="s">
         <v>8</v>
       </c>
       <c r="I5">
-        <v>7.5252380000000001E-3</v>
+        <v>7.8293470000000004E-3</v>
       </c>
       <c r="J5">
-        <v>0.88500000000000001</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="K5">
-        <v>0.44500000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0.495</v>
+      </c>
+      <c r="L5">
+        <v>0.44</v>
+      </c>
+      <c r="M5">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>4.3914139999999996E-4</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>1.2371211999999999E-3</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="2"/>
+        <v>1.1252524999999999E-3</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="3"/>
+        <v>1.209802E-4</v>
+      </c>
+      <c r="R5">
+        <v>4.3914139999999997E-2</v>
+      </c>
+      <c r="S5">
+        <v>0.12371211999999999</v>
+      </c>
+      <c r="T5">
+        <v>0.11252524999999999</v>
+      </c>
+      <c r="U5">
+        <v>1.2098019999999999E-2</v>
+      </c>
+      <c r="X5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>50</v>
       </c>
@@ -1893,22 +2130,56 @@
         <v>100</v>
       </c>
       <c r="G6">
-        <v>6.0168029999999997E-2</v>
+        <v>6.9433980000000006E-2</v>
       </c>
       <c r="H6" t="s">
         <v>8</v>
       </c>
       <c r="I6">
-        <v>7.3051640000000003E-3</v>
+        <v>1.324814E-2</v>
       </c>
       <c r="J6">
-        <v>0.89500000000000002</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="K6">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0.5</v>
+      </c>
+      <c r="L6">
+        <v>0.39</v>
+      </c>
+      <c r="M6">
+        <v>0.14428569999999999</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>2.4722219999999997E-4</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>1.4646465E-3</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="2"/>
+        <v>1.3424242000000001E-3</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="3"/>
+        <v>1.216038E-4</v>
+      </c>
+      <c r="R6">
+        <v>2.472222E-2</v>
+      </c>
+      <c r="S6">
+        <v>0.14646465</v>
+      </c>
+      <c r="T6">
+        <v>0.13424242</v>
+      </c>
+      <c r="U6">
+        <v>1.216038E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>75</v>
       </c>
@@ -1928,22 +2199,56 @@
         <v>100</v>
       </c>
       <c r="G7">
-        <v>6.7725579999999994E-2</v>
+        <v>7.174324E-2</v>
       </c>
       <c r="H7" t="s">
         <v>8</v>
       </c>
       <c r="I7">
-        <v>2.0748679999999999E-2</v>
+        <v>1.3154310000000001E-2</v>
       </c>
       <c r="J7">
-        <v>0.94499999999999995</v>
+        <v>0.995</v>
       </c>
       <c r="K7">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="L7">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="M7">
+        <v>9.6428570000000005E-2</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>1.3320707100000001E-3</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="2"/>
+        <v>9.8257576000000007E-4</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="3"/>
+        <v>8.4905169999999999E-5</v>
+      </c>
+      <c r="R7">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="S7">
+        <v>0.13320707100000001</v>
+      </c>
+      <c r="T7">
+        <v>9.8257575999999999E-2</v>
+      </c>
+      <c r="U7">
+        <v>8.4905169999999995E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>150</v>
       </c>
@@ -1963,22 +2268,56 @@
         <v>100</v>
       </c>
       <c r="G8">
-        <v>7.3864650000000004E-2</v>
+        <v>8.5862569999999999E-2</v>
       </c>
       <c r="H8" t="s">
         <v>8</v>
       </c>
       <c r="I8">
-        <v>8.7321480000000003E-3</v>
+        <v>1.458808E-2</v>
       </c>
       <c r="J8">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0.49</v>
+      </c>
+      <c r="L8">
+        <v>0.21</v>
+      </c>
+      <c r="M8">
+        <v>6.4285709999999996E-2</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>1.2616161600000001E-3</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="2"/>
+        <v>7.6666666999999997E-4</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="3"/>
+        <v>5.926613E-5</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.126161616</v>
+      </c>
+      <c r="T8">
+        <v>7.6666666999999994E-2</v>
+      </c>
+      <c r="U8">
+        <v>5.9266129999999998E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>300</v>
       </c>
@@ -1998,97 +2337,1666 @@
         <v>100</v>
       </c>
       <c r="G9">
-        <v>9.8472859999999995E-2</v>
+        <v>0.1184795</v>
       </c>
       <c r="H9" t="s">
         <v>8</v>
       </c>
       <c r="I9">
-        <v>1.2454750000000001E-2</v>
+        <v>2.5526469999999999E-2</v>
       </c>
       <c r="J9">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0.495</v>
+      </c>
+      <c r="L9">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="M9">
+        <v>3.7857139999999997E-2</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>1.3381313100000001E-3</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="2"/>
+        <v>5.7045455000000005E-4</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="3"/>
+        <v>3.757473E-5</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.133813131</v>
+      </c>
+      <c r="T9">
+        <v>5.7045455000000002E-2</v>
+      </c>
+      <c r="U9">
+        <v>3.7574729999999999E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10">
+        <v>1000</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10">
+        <v>0.26865280000000002</v>
+      </c>
+      <c r="H10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <v>7.1261329999999998E-2</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0.505</v>
+      </c>
+      <c r="L10">
+        <v>0.04</v>
+      </c>
+      <c r="M10">
+        <v>2.1428570000000001E-2</v>
+      </c>
+      <c r="N10">
+        <f t="shared" ref="N10" si="4">(R10)/MAX(F10, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f t="shared" ref="O10" si="5">S10/MAX(F10, 1)</f>
+        <v>1.38863636E-3</v>
+      </c>
+      <c r="P10">
+        <f t="shared" ref="P10" si="6">T10/MAX(F10, 1)</f>
+        <v>1.8585859000000001E-4</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" ref="Q10" si="7">U10/MAX(F10, 1)</f>
+        <v>2.2160380000000001E-5</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.13886363600000001</v>
+      </c>
+      <c r="T10">
+        <v>1.8585859E-2</v>
+      </c>
+      <c r="U10">
+        <v>2.216038E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>5000</v>
       </c>
-      <c r="B10">
-        <v>20</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>30</v>
+      </c>
+      <c r="G11">
+        <v>2.7503139999999999</v>
+      </c>
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <v>4.8060909999999998E-2</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0.5</v>
+      </c>
+      <c r="L11">
+        <v>1.6666670000000001E-2</v>
+      </c>
+      <c r="M11">
+        <v>9.5238100000000006E-3</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>5.1724137933333329E-3</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="2"/>
+        <v>2.7777777666666668E-4</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="3"/>
+        <v>2.0329970000000001E-5</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.15517241379999999</v>
+      </c>
+      <c r="T11">
+        <v>8.3333333000000006E-3</v>
+      </c>
+      <c r="U11">
+        <v>6.0989910000000004E-4</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>10000</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
         <v>5</v>
       </c>
-      <c r="G10">
-        <v>3.1130330000000002</v>
-      </c>
-      <c r="H10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10">
-        <v>4.3620529999999998E-2</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11">
+      <c r="G12">
+        <v>6.9943249999999999</v>
+      </c>
+      <c r="H12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>1.8197379999999999E-2</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0.4</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.05</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>10000</v>
       </c>
-      <c r="B11">
-        <v>20</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>30</v>
+      </c>
+      <c r="G13">
+        <v>6.893713</v>
+      </c>
+      <c r="H13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <v>6.0686829999999997E-2</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0.46666667000000001</v>
+      </c>
+      <c r="L13">
+        <v>1.6666670000000001E-2</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f t="shared" ref="N13" si="8">(R13)/MAX(F13, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f t="shared" ref="O13" si="9">S13/MAX(F13, 1)</f>
+        <v>4.5593869666666663E-3</v>
+      </c>
+      <c r="P13">
+        <f t="shared" ref="P13" si="10">T13/MAX(F13, 1)</f>
+        <v>2.7777776666666667E-4</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" ref="Q13" si="11">U13/MAX(F13, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.136781609</v>
+      </c>
+      <c r="T13">
+        <v>8.3333330000000001E-3</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>50000</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>150</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
+      <c r="G15">
+        <v>0.91815270000000004</v>
+      </c>
+      <c r="H15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15">
+        <v>0.88103260000000005</v>
+      </c>
+      <c r="J15">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="K15">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="L15">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="M15">
+        <v>7.9571429999999999E-2</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>2.2464649999999998E-5</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>2.9862626000000001E-4</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="2"/>
+        <v>2.6112120999999998E-4</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="3"/>
+        <v>4.0290869999999995E-5</v>
+      </c>
+      <c r="R15">
+        <v>2.246465E-3</v>
+      </c>
+      <c r="S15">
+        <v>2.9862626E-2</v>
+      </c>
+      <c r="T15">
+        <v>2.6112120999999999E-2</v>
+      </c>
+      <c r="U15">
+        <v>4.0290869999999998E-3</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>250</v>
+      </c>
+      <c r="B16">
+        <v>100</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
+      <c r="G16">
+        <v>0.8890226</v>
+      </c>
+      <c r="H16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16">
+        <v>0.1300654</v>
+      </c>
+      <c r="J16">
+        <v>0.998</v>
+      </c>
+      <c r="K16">
+        <v>0.504</v>
+      </c>
+      <c r="L16">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="M16">
+        <v>3.8428570000000002E-2</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>1.979798E-6</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>2.58424242E-4</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="2"/>
+        <v>1.18494949E-4</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="3"/>
+        <v>2.1714903999999999E-5</v>
+      </c>
+      <c r="R16">
+        <v>1.9797980000000001E-4</v>
+      </c>
+      <c r="S16">
+        <v>2.5842424199999998E-2</v>
+      </c>
+      <c r="T16">
+        <v>1.18494949E-2</v>
+      </c>
+      <c r="U16">
+        <v>2.1714904E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>300</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>100</v>
+      </c>
+      <c r="G17">
+        <v>0.98374159999999999</v>
+      </c>
+      <c r="H17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17">
+        <v>0.16841600000000001</v>
+      </c>
+      <c r="J17">
+        <v>0.999</v>
+      </c>
+      <c r="K17">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="L17">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="M17">
+        <v>3.4142859999999997E-2</v>
+      </c>
+      <c r="N17">
+        <f t="shared" ref="N17" si="12">(R17)/MAX(F17, 1)</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="O17">
+        <f t="shared" ref="O17" si="13">S17/MAX(F17, 1)</f>
+        <v>3.0622222000000003E-4</v>
+      </c>
+      <c r="P17">
+        <f t="shared" ref="P17" si="14">T17/MAX(F17, 1)</f>
+        <v>1.5849495000000002E-4</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" ref="Q17" si="15">U17/MAX(F17, 1)</f>
+        <v>1.7270460000000001E-5</v>
+      </c>
+      <c r="R17">
+        <v>1E-4</v>
+      </c>
+      <c r="S17">
+        <v>3.0622222000000001E-2</v>
+      </c>
+      <c r="T17">
+        <v>1.5849495000000002E-2</v>
+      </c>
+      <c r="U17">
+        <v>1.7270460000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>1000</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>30</v>
+      </c>
+      <c r="G18">
+        <v>2.4292690000000001</v>
+      </c>
+      <c r="H18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18">
+        <v>0.48387970000000002</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0.4766667</v>
+      </c>
+      <c r="L18">
+        <v>0.03</v>
+      </c>
+      <c r="M18">
+        <v>0.01</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="1"/>
+        <v>7.0536398333333335E-4</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="2"/>
+        <v>1.6436781666666664E-4</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="3"/>
+        <v>1.0391743333333333E-5</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>2.11609195E-2</v>
+      </c>
+      <c r="T18">
+        <v>4.9310344999999997E-3</v>
+      </c>
+      <c r="U18">
+        <v>3.1175229999999999E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>5000</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>30</v>
+      </c>
+      <c r="G19">
+        <v>12.02075</v>
+      </c>
+      <c r="H19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19">
+        <v>0.38998480000000002</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0.53</v>
+      </c>
+      <c r="L19">
+        <v>3.3333333E-2</v>
+      </c>
+      <c r="M19">
+        <v>4.7619050000000003E-3</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="1"/>
+        <v>8.0804599999999998E-4</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="2"/>
+        <v>1.4559386666666667E-4</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="3"/>
+        <v>2.502150333333333E-6</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>2.424138E-2</v>
+      </c>
+      <c r="T19">
+        <v>4.3678160000000001E-3</v>
+      </c>
+      <c r="U19">
+        <v>7.5064509999999993E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>1000</v>
+      </c>
+      <c r="B20">
+        <v>300</v>
+      </c>
+      <c r="C20">
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <v>30</v>
+      </c>
+      <c r="E20">
+        <v>30</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>12.997909999999999</v>
+      </c>
+      <c r="H20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20">
+        <v>3.7060439999999999</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0.52</v>
+      </c>
+      <c r="L20">
+        <v>0.05</v>
+      </c>
+      <c r="M20">
+        <v>1.2592590000000001E-2</v>
+      </c>
+      <c r="N20">
+        <f t="shared" ref="N20:N23" si="16">(R20)/MAX(F20, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <f t="shared" ref="O20:O23" si="17">S20/MAX(F20, 1)</f>
+        <v>1.9555556000000001E-3</v>
+      </c>
+      <c r="P20">
+        <f t="shared" ref="P20:P23" si="18">T20/MAX(F20, 1)</f>
+        <v>7.2222220000000008E-4</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" ref="Q20:Q23" si="19">U20/MAX(F20, 1)</f>
+        <v>2.3533E-5</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.9555556000000002E-2</v>
+      </c>
+      <c r="T20">
+        <v>7.2222220000000004E-3</v>
+      </c>
+      <c r="U20">
+        <v>2.3533000000000001E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>50</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>14</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>100</v>
+      </c>
+      <c r="G21">
+        <v>9.2050460000000001E-2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21">
+        <v>9.2143240000000001E-2</v>
+      </c>
+      <c r="J21">
+        <v>0.95</v>
+      </c>
+      <c r="K21">
+        <v>0.49142859999999999</v>
+      </c>
+      <c r="L21">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="M21">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="16"/>
+        <v>2.4722219999999997E-4</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="17"/>
+        <v>1.4646465E-3</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="18"/>
+        <v>1.3424242000000001E-3</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="19"/>
+        <v>1.216038E-4</v>
+      </c>
+      <c r="R21">
+        <v>2.472222E-2</v>
+      </c>
+      <c r="S21">
+        <v>0.14646465</v>
+      </c>
+      <c r="T21">
+        <v>0.13424242</v>
+      </c>
+      <c r="U21">
+        <v>1.216038E-2</v>
+      </c>
+      <c r="X21" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>150</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>14</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>100</v>
+      </c>
+      <c r="G22">
+        <v>8.843094E-2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22">
+        <v>1.639179E-2</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>0.49214289999999999</v>
+      </c>
+      <c r="L22">
+        <v>0.16</v>
+      </c>
+      <c r="M22">
+        <v>0.04</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="17"/>
+        <v>2.1634199999999998E-4</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="18"/>
+        <v>6.5050510000000004E-4</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="19"/>
+        <v>1.858586E-4</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>2.1634199999999999E-2</v>
+      </c>
+      <c r="T22">
+        <v>6.5050510000000006E-2</v>
+      </c>
+      <c r="U22">
+        <v>1.8585859999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>300</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>14</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>100</v>
+      </c>
+      <c r="G23">
+        <v>0.1209957</v>
+      </c>
+      <c r="H23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23">
+        <v>2.9455749999999999E-2</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>0.50285709999999995</v>
+      </c>
+      <c r="L23">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="M23">
+        <v>0.02</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="17"/>
+        <v>1.514327E-4</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="18"/>
+        <v>4.3914139999999996E-4</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="19"/>
+        <v>9.6969699999999994E-5</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.514327E-2</v>
+      </c>
+      <c r="T23">
+        <v>4.3914139999999997E-2</v>
+      </c>
+      <c r="U23">
+        <v>9.6969699999999992E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>150</v>
+      </c>
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>14</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>100</v>
+      </c>
+      <c r="G24">
+        <v>0.1005035</v>
+      </c>
+      <c r="H24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24">
+        <v>2.3517110000000001E-2</v>
+      </c>
+      <c r="J24">
+        <v>0.99714290000000005</v>
+      </c>
+      <c r="K24">
+        <v>0.5</v>
+      </c>
+      <c r="L24">
+        <v>0.15</v>
+      </c>
+      <c r="M24">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="N24">
+        <f t="shared" ref="N24:N26" si="20">(R24)/MAX(F24, 1)</f>
+        <v>1.9789729999999999E-6</v>
+      </c>
+      <c r="O24">
+        <f t="shared" ref="O24:O26" si="21">S24/MAX(F24, 1)</f>
+        <v>1.1616161620000001E-3</v>
+      </c>
+      <c r="P24">
+        <f t="shared" ref="P24:P26" si="22">T24/MAX(F24, 1)</f>
+        <v>7.3232323200000005E-4</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" ref="Q24:Q26" si="23">U24/MAX(F24, 1)</f>
+        <v>2.06818182E-4</v>
+      </c>
+      <c r="R24">
+        <v>1.9789729999999999E-4</v>
+      </c>
+      <c r="S24">
+        <v>0.1161616162</v>
+      </c>
+      <c r="T24">
+        <v>7.3232323200000005E-2</v>
+      </c>
+      <c r="U24">
+        <v>2.06818182E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>150</v>
+      </c>
+      <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>14</v>
+      </c>
+      <c r="F25">
+        <v>100</v>
+      </c>
+      <c r="G25">
+        <v>8.573472E-2</v>
+      </c>
+      <c r="H25" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25">
+        <v>1.670307E-2</v>
+      </c>
+      <c r="J25">
+        <v>0.99</v>
+      </c>
+      <c r="K25">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="L25">
+        <v>0.1835714</v>
+      </c>
+      <c r="M25">
+        <v>0.09</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="20"/>
+        <v>4.9494949999999996E-5</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="21"/>
+        <v>1.2856060599999999E-3</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="22"/>
+        <v>1.6208514E-4</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="23"/>
+        <v>3.7272727E-4</v>
+      </c>
+      <c r="R25">
+        <v>4.9494949999999999E-3</v>
+      </c>
+      <c r="S25">
+        <v>0.12856060599999999</v>
+      </c>
+      <c r="T25">
+        <v>1.6208514E-2</v>
+      </c>
+      <c r="U25">
+        <v>3.7272726999999999E-2</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>150</v>
+      </c>
+      <c r="B26">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>300</v>
+      </c>
+      <c r="G26">
+        <v>8.1455739999999999E-2</v>
+      </c>
+      <c r="H26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26">
+        <v>1.7174930000000001E-2</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>0.49666666999999998</v>
+      </c>
+      <c r="L26">
+        <v>0.16</v>
+      </c>
+      <c r="M26">
+        <v>4.8809520000000002E-2</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="21"/>
+        <v>3.9015235999999997E-4</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="22"/>
+        <v>2.4882943000000002E-4</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="23"/>
+        <v>1.5181936666666668E-5</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0.117045708</v>
+      </c>
+      <c r="T26">
+        <v>7.4648829E-2</v>
+      </c>
+      <c r="U26">
+        <v>4.5545810000000003E-3</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>150</v>
+      </c>
+      <c r="B27">
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>300</v>
+      </c>
+      <c r="G27">
+        <v>7.1326760000000003E-2</v>
+      </c>
+      <c r="H27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27">
+        <v>1.399421E-2</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>0.5</v>
+      </c>
+      <c r="L27">
+        <v>0.10333333</v>
+      </c>
+      <c r="M27">
+        <v>3.1904759999999997E-2</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="1"/>
+        <v>3.9576365666666667E-4</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="2"/>
+        <v>1.5938313E-4</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="3"/>
+        <v>1.2862983333333334E-5</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0.11872909700000001</v>
+      </c>
+      <c r="T27">
+        <v>4.7814939000000001E-2</v>
+      </c>
+      <c r="U27">
+        <v>3.8588950000000002E-3</v>
+      </c>
+      <c r="V27">
         <v>5</v>
       </c>
-      <c r="G11">
-        <v>14.919230000000001</v>
-      </c>
-      <c r="H11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11">
-        <v>0.66773570000000004</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>50000</v>
-      </c>
-      <c r="B12">
-        <v>20</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="s">
-        <v>31</v>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>150</v>
+      </c>
+      <c r="B28">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>300</v>
+      </c>
+      <c r="G28">
+        <v>7.0725049999999998E-2</v>
+      </c>
+      <c r="H28" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28">
+        <v>1.3301459999999999E-2</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>0.5</v>
+      </c>
+      <c r="L28">
+        <v>8.8333330000000002E-2</v>
+      </c>
+      <c r="M28">
+        <v>3.2619049999999997E-2</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="1"/>
+        <v>3.9576366666666668E-4</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="2"/>
+        <v>1.4391489999999999E-4</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="3"/>
+        <v>1.17419E-5</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0.1187291</v>
+      </c>
+      <c r="T28">
+        <v>4.317447E-2</v>
+      </c>
+      <c r="U28">
+        <v>3.52257E-3</v>
+      </c>
+      <c r="V28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>150</v>
+      </c>
+      <c r="B29">
+        <v>20</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>300</v>
+      </c>
+      <c r="G29">
+        <v>6.9739280000000001E-2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29">
+        <v>1.304113E-2</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>0.5</v>
+      </c>
+      <c r="L29">
+        <v>9.1666670000000006E-2</v>
+      </c>
+      <c r="M29">
+        <v>3.2380949999999999E-2</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="1"/>
+        <v>3.9576366666666668E-4</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="2"/>
+        <v>1.4748233333333332E-4</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="3"/>
+        <v>1.1054233333333333E-5</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0.1187291</v>
+      </c>
+      <c r="T29">
+        <v>4.4244699999999998E-2</v>
+      </c>
+      <c r="U29">
+        <v>3.3162700000000001E-3</v>
+      </c>
+      <c r="V29">
+        <v>5000</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>150</v>
+      </c>
+      <c r="B30">
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>300</v>
+      </c>
+      <c r="G30">
+        <v>7.1257680000000004E-2</v>
+      </c>
+      <c r="H30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30">
+        <v>1.455002E-2</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>0.5</v>
+      </c>
+      <c r="L30">
+        <v>9.1666670000000006E-2</v>
+      </c>
+      <c r="M30">
+        <v>3.2380949999999999E-2</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="1"/>
+        <v>3.9576366666666668E-4</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="2"/>
+        <v>1.4748233333333332E-4</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="3"/>
+        <v>1.1054233333333333E-5</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0.1187291</v>
+      </c>
+      <c r="T30">
+        <v>4.4244699999999998E-2</v>
+      </c>
+      <c r="U30">
+        <v>3.3162700000000001E-3</v>
+      </c>
+      <c r="V30">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>150</v>
+      </c>
+      <c r="B31">
+        <v>20</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>300</v>
+      </c>
+      <c r="G31">
+        <v>8.7534479999999998E-2</v>
+      </c>
+      <c r="H31" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31">
+        <v>1.7955140000000001E-2</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>0.49166670000000001</v>
+      </c>
+      <c r="L31">
+        <v>0.23</v>
+      </c>
+      <c r="M31">
+        <v>4.5238100000000003E-2</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="1"/>
+        <v>4.0946673999999996E-4</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="2"/>
+        <v>3.1360089333333334E-4</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="3"/>
+        <v>1.3973259999999999E-5</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0.12284002199999999</v>
+      </c>
+      <c r="T31">
+        <v>9.4080267999999995E-2</v>
+      </c>
+      <c r="U31">
+        <v>4.1919779999999999E-3</v>
+      </c>
+      <c r="V31">
+        <v>0.6</v>
+      </c>
+      <c r="W31">
+        <v>10</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>150</v>
+      </c>
+      <c r="B32">
+        <v>20</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>300</v>
+      </c>
+      <c r="G32">
+        <v>8.9411550000000006E-2</v>
+      </c>
+      <c r="H32" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32">
+        <v>1.914834E-2</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>0.495</v>
+      </c>
+      <c r="L32">
+        <v>0.21833332999999999</v>
+      </c>
+      <c r="M32">
+        <v>4.666667E-2</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="1"/>
+        <v>4.3191192999999996E-4</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="2"/>
+        <v>2.7814009666666666E-4</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="3"/>
+        <v>1.4102943333333334E-5</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0.12957357899999999</v>
+      </c>
+      <c r="T32">
+        <v>8.3442029000000001E-2</v>
+      </c>
+      <c r="U32">
+        <v>4.2308830000000004E-3</v>
+      </c>
+      <c r="V32">
+        <v>0.6</v>
+      </c>
+      <c r="W32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="23:25" x14ac:dyDescent="0.35">
+      <c r="W33">
+        <v>100</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
